--- a/InputFiles/INS/TC01_INS_FocusArea-CancerMoonshot.xlsx
+++ b/InputFiles/INS/TC01_INS_FocusArea-CancerMoonshot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDB90E-C0FC-8248-A30C-FAC70A0F5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71646E4-4D1A-B94D-B36B-83B2226D8BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="520" windowWidth="30240" windowHeight="17820" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="38400" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,48 +71,41 @@
     <t>TC01_INS_FocusArea-CancerMoonshot_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT DISTINCT 
-    prg.program_name AS "Program",
-    CASE 
-        WHEN prg.program_link = 'https://healthcaredelivery.cancer.gov/accsis/' THEN 'ACCSIS'
-        WHEN prg.program_link = 'https://www.nciartnet.org/en/' THEN 'ARTNet'
-        WHEN prg.program_link = 'https://dctd.cancer.gov/ResearchNetworks/cimacs_cidc_network.htm' THEN 'CIMAC'
-        WHEN prg.program_link = 'https://dctd.cancer.gov/ResearchNetworks/cimacs_cidc_network.html' THEN 'CIDC'
-        WHEN prg.program_link = 'https://ncihub.cancer.gov/groups/cirphub/overview' THEN 'CIRP'
-        WHEN prg.program_link = 'https://cancercontrol.cancer.gov/brp/tcrb/cancer-center-cessation-initiative' THEN 'C3I'
-        WHEN prg.program_link = 'https://www.cancer.gov/research/key-initiatives/moonshot-cancer-initiative/implementation/childhood-cancer-research#fusion-oncoproteins-in-childhood-cancers-fusonc2-consortium' THEN 'FusOnc2'
-        WHEN prg.program_link = 'https://humantumoratlas.org/' THEN 'HTAN'
-        WHEN prg.program_link = 'https://www.iotnmoonshot.org/en/' THEN 'IOTN'
-        WHEN prg.program_link = 'https://iscentersincancercontrol.org/' THEN 'ISC3'
-        WHEN prg.program_link = 'https://impactconsortium.rti.org/' THEN 'IMPACT'
-        WHEN prg.program_link = 'https://www.cancer.gov/about-nci/organization/dcb/research-programs/omf' THEN 'OMF'
-        WHEN prg.program_link = 'https://prevention.cancer.gov/major-programs/pancreatic-cancer-detection-consortium-pcdc' THEN 'PCDC'
-        WHEN prg.program_link = 'https://pacmen.org/' THEN 'PaCMEN'
-        WHEN prg.program_link = 'https://pe-cgs.org/' THEN 'PE-CGS'
-        WHEN prg.program_link = 'https://www.pdxnetwork.org/' THEN 'PDXNet'
-        WHEN prg.program_link = 'https://ctep.cancer.gov/initiativesPrograms/pep-ctn.htm' THEN 'PEP-CTN'
-        WHEN prg.program_link = 'https://preclinicalpivot.org/' THEN 'PIVOT'
-        ELSE prg.program_link
-    END  AS "Website",
-    prg.focus_area AS "Focus Area",
-    prg.cancer_type AS "Cancer Type",
-    CASE 
-        WHEN prg.data_link = 'https://accsis.rti.org/consortium/cc/' THEN 'ACCSIS'
-        WHEN prg.data_link = 'https://www.nciartnet.org/en/resources/data-sharing-catalog/' THEN 'ARTNet'
-        WHEN prg.data_link = 'https://humantumoratlas.org/explore' THEN 'HTAN'
-        WHEN prg.data_link = 'https://www.iotnmoonshot.org/en/resources/data-sharing-catalog/' THEN 'IOTN'
-        WHEN prg.data_link = 'https://www.cancer.gov/about-nci/organization/dcb/research-programs/omf#nci-and-omf-resources-related-to-oncology-models' THEN 'OMF'
-        WHEN prg.data_link = 'https://pacmen.org/Dbs.html' THEN 'PaCMEN'
-        WHEN prg.data_link = 'https://prevention.cancer.gov/major-programs/pancreatic-cancer-detection-consortium-pcdc/pcdc-resources-and-collaborative-opportunities' THEN 'PCDC'
-        WHEN prg.data_link = 'https://www.pdxnetwork.org/pdccc' THEN 'PDXNet'
-        ELSE prg.data_link
-    END AS "Data Location Details"
+    <t>SELECT DISTINCT
+    COUNT(DISTINCT prg.program_id) AS "Programs",
+    COUNT(DISTINCT prj.project_id) AS "Projects",
+    COUNT(DISTINCT gnt.grant_id) AS "Grants",
+    COUNT(DISTINCT pub.pmid) AS "Publications"
 FROM 
     df_program prg
+LEFT JOIN 
+    df_project prj ON prg.program_id = prj."program.program_id"
+LEFT JOIN 
+    df_grant gnt ON prj.project_id = gnt."project.project_id"
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-    prg.focus_area IN ('Cancer Moonshot', 'Pediatric/AYA;Cancer Moonshot')
+    prg.focus_area LIKE '%Cancer Moonshot%'</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prj.project_id AS "Project ID", 
+    prj.project_title AS "Project Title",
+    prj.org_name AS "Organization",
+    prj.project_start_date AS "Project Start Date",
+    prj.project_end_date AS "Project End Date"
+FROM 
+    df_project prj
+LEFT JOIN 
+    df_program prg ON prj."program.program_id" = prg.program_id
+LEFT JOIN 
+    df_grant gnt ON prj.project_id = gnt."project.project_id"
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
+WHERE 
+    prg.focus_area  LIKE '%Cancer Moonshot%'
 ORDER BY 
-    prg.program_name ASC
+    lower(prj.project_id) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -133,9 +126,9 @@
 LEFT JOIN 
     df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-    prg.focus_area IN ('Cancer Moonshot', 'Pediatric/AYA;Cancer Moonshot')
+    prg.focus_area  LIKE '%Cancer Moonshot%'
 ORDER BY 
-    gnt.grant_id ASC
+    lower(gnt.grant_id) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -160,71 +153,40 @@
 LEFT JOIN 
     df_grant gnt ON prj.project_id = gnt."project.project_id"
 WHERE 
-    prg.focus_area IN ('Cancer Moonshot', 'Pediatric/AYA;Cancer Moonshot')
+    prg.focus_area  LIKE '%Cancer Moonshot%'
 ORDER BY 
-    pub.pmid ASC
+    lower(pub.pmid) ASC
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    prj.project_id AS "Project ID", 
-    prj.project_title AS "Project Title",
-    prj.org_name AS "Organization",
-    prj.project_start_date AS "Project Start Date",
-    prj.project_end_date AS "Project End Date"
-FROM 
-    df_project prj
-LEFT JOIN 
-    df_program prg ON prj."program.program_id" = prg.program_id
-LEFT JOIN 
-    df_grant gnt ON prj.project_id = gnt."project.project_id"
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
-WHERE 
-    prg.focus_area IN ('Cancer Moonshot', 'Pediatric/AYA;Cancer Moonshot')
-ORDER BY 
-    prj.project_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    COUNT(DISTINCT prg.program_id) AS "Programs",
-    COUNT(DISTINCT prj.project_id) AS "Projects",
-    COUNT(DISTINCT gnt.grant_id) AS "Grants",
-    COUNT(DISTINCT pub.pmid) AS "Publications"
+    <t>SELECT DISTINCT 
+    prg.program_name AS "Program",
+  CASE
+    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
+        ELSE prg.program_link
+    END  AS "Website",
+    prg.focus_area AS "Focus Area",
+    prg.cancer_type AS "Cancer Type",
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        ELSE prg.data_link
+    END AS "Data Location Details"
 FROM 
     df_program prg
-LEFT JOIN 
-    df_project prj ON prg.program_id = prj."program.program_id"
-LEFT JOIN 
-    df_grant gnt ON prj.project_id = gnt."project.project_id"
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-    prg.focus_area IN ('Cancer Moonshot', 'Pediatric/AYA;Cancer Moonshot');</t>
+    prg.focus_area LIKE '%Cancer Moonshot%'
+ORDER BY 
+    lower(prg.program_name) ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,17 +246,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -624,7 +580,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -670,20 +626,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="307" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="356" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -691,8 +647,8 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -704,7 +660,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
